--- a/documents/stundenlisten/Stundenliste_Fabian_Becker.xlsx
+++ b/documents/stundenlisten/Stundenliste_Fabian_Becker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -127,6 +127,39 @@
   </si>
   <si>
     <t xml:space="preserve">Integration PS4 Treiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druck &amp; Design Mikrocontroller Cases</t>
+  </si>
+  <si>
+    <t>Stromversorgung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Verkabelung ESP32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung Moduswechsel (manuel &lt;-&gt; KI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiefpassfilter zur Unterdrückung von Jitter implementiert</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentationsfolien erstellt &amp; Bilder aufgenommen</t>
+  </si>
+  <si>
+    <t>Gesamttests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integriertes Fahrzeug getestet (Controller &amp; Platform)</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung der wissenschaftlichen Dokumentation</t>
   </si>
   <si>
     <t>Gesamt:</t>
@@ -385,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,9 +428,6 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,13 +450,10 @@
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,7 +977,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -982,492 +1009,533 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="3.75" customHeight="1"/>
     <row r="6" ht="15.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
-        <v>4.5</v>
+      <c r="D7" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13">
-        <f>1+2+1.5+1</f>
-        <v>5.5</v>
+      <c r="D8" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14">
-        <v>3.5</v>
+      <c r="D9" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f>4+4+3</f>
         <v>11</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14">
-        <v>3.5</v>
+      <c r="D11" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="15.75">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="19">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="D13" s="14">
+      <c r="B25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
+        <v>20</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10">
+        <v>21</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="29">
+      <c r="A29" s="10">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10">
+        <v>24</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10">
+        <v>26</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="12">
         <v>20</v>
       </c>
-      <c r="D14" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
         <v>27</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
         <v>29</v>
       </c>
-      <c r="D21" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
         <v>30</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
         <v>31</v>
       </c>
-      <c r="D22" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>32</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
         <v>33</v>
       </c>
-      <c r="D23" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
         <v>34</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
         <v>35</v>
       </c>
-      <c r="D24" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
         <v>36</v>
       </c>
-      <c r="D25" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11">
-        <v>23</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11">
-        <v>24</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11">
-        <v>25</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11">
-        <v>26</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11">
-        <v>27</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11">
-        <v>28</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11">
-        <v>29</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11">
-        <v>30</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11">
-        <v>31</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11">
-        <v>32</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11">
-        <v>33</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11">
-        <v>34</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="11">
-        <v>35</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11">
-        <v>36</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>37</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>38</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>39</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>40</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>41</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>42</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" ht="15.75">
-      <c r="A49" s="17">
+      <c r="A49" s="15">
         <v>43</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" ht="16.5">
-      <c r="C50" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="21">
+      <c r="C50" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="19">
         <f>SUM(D7:D49)</f>
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/documents/stundenlisten/Stundenliste_Fabian_Becker.xlsx
+++ b/documents/stundenlisten/Stundenliste_Fabian_Becker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Einarbeitung ESP-IDF, erster Entwurf mit Bluetooth HID</t>
   </si>
   <si>
-    <t xml:space="preserve">Debugging PS4 Treiber wegen ESP Freeze</t>
+    <t xml:space="preserve">Debugging PS4 Treiber aufgrund ESP Freeze</t>
   </si>
   <si>
     <t xml:space="preserve">Erstellung ESP32 Projekt mit Bluepad32 Dependencies</t>
@@ -102,7 +102,7 @@
     <t>Plattformsteuerung</t>
   </si>
   <si>
-    <t xml:space="preserve">Gradweise Ansterung für Servomotoren implementiert</t>
+    <t xml:space="preserve">Gradweise Ansteurung für Servomotoren implementiert</t>
   </si>
   <si>
     <t xml:space="preserve">Redesign + Druck Schussarm und Magazin</t>
@@ -111,7 +111,7 @@
     <t>Lautsprecher</t>
   </si>
   <si>
-    <t xml:space="preserve">Treiberboard gelötet und Test Lautsprecher (Mono)</t>
+    <t xml:space="preserve">Treiberboard gelötet und Test Lautsprecher</t>
   </si>
   <si>
     <t xml:space="preserve">Flywheel Motoren</t>
@@ -138,6 +138,12 @@
     <t xml:space="preserve">Finale Verkabelung ESP32 </t>
   </si>
   <si>
+    <t>Gesamttests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integriertes Fahrzeug getestet (Controller &amp; Platform)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implementierung Moduswechsel (manuel &lt;-&gt; KI)</t>
   </si>
   <si>
@@ -150,10 +156,10 @@
     <t xml:space="preserve">Präsentationsfolien erstellt &amp; Bilder aufgenommen</t>
   </si>
   <si>
-    <t>Gesamttests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integriertes Fahrzeug getestet (Controller &amp; Platform)</t>
+    <t>Objekttracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung &amp; Testen des Objekttrackings</t>
   </si>
   <si>
     <t>Dokumentation</t>
@@ -193,7 +199,7 @@
     <font>
       <sz val="11.000000"/>
       <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -453,7 +459,7 @@
     <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,7 +983,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1152,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1166,7 +1172,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1299,24 +1305,25 @@
       <c r="A26" s="10">
         <v>20</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="12">
         <v>10</v>
       </c>
+      <c r="M26" s="14"/>
     </row>
     <row r="27">
       <c r="A27" s="10">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="12">
@@ -1327,38 +1334,38 @@
       <c r="A28" s="10">
         <v>22</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="C28" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D28" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10">
         <v>23</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>41</v>
+      <c r="C29" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10">
         <v>24</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="12">
@@ -1369,174 +1376,102 @@
       <c r="A31" s="10">
         <v>25</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10">
         <v>26</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="12">
+        <v>3</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" ht="15.75">
+      <c r="A33" s="15">
+        <v>27</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="10">
-        <v>27</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="10">
-        <v>28</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="10">
-        <v>29</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="10">
-        <v>30</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="10">
-        <v>31</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="10">
-        <v>32</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="10">
-        <v>33</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="10">
-        <v>34</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="10">
-        <v>35</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="10">
-        <v>36</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="10">
-        <v>37</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="10">
-        <v>38</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="10">
-        <v>39</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10">
-        <v>40</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="10">
-        <v>41</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="10">
-        <v>42</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" ht="15.75">
-      <c r="A49" s="15">
-        <v>43</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" ht="16.5">
-      <c r="C50" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="19">
-        <f>SUM(D7:D49)</f>
-        <v>169</v>
-      </c>
+    <row r="34" ht="16.5">
+      <c r="A34" s="1"/>
+      <c r="C34" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="19">
+        <f>SUM(D7:D33)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
